--- a/BOM_Processor/20240322-Electrical component library.xlsx
+++ b/BOM_Processor/20240322-Electrical component library.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Components" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$113</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="447">
   <si>
     <t xml:space="preserve">Document:</t>
   </si>
@@ -1337,6 +1337,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Bourns/SF-1206HH20M-2?qs=gTYE2QTfZfSIcL5c8oAFag%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM1555C1H8R0DA16D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Murata-Electronics/GCM1555C1H8R0DA16D?qs=ui%252B2d9lVEI56SuLlbLRhpw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUM001L02T2CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROHM Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-723-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/ROHM-Semiconductor/RUM001L02T2CL?qs=QcFhgjUTvvq561FHtbVAHA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1505,60 +1532,64 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1578,7 +1609,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1590,7 +1621,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1720,9 +1751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1672560</xdr:colOff>
+      <xdr:colOff>1671480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1736,7 +1767,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5455080" y="212040"/>
-          <a:ext cx="1199520" cy="549720"/>
+          <a:ext cx="1198440" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1925,95 +1956,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M113"/>
+  <dimension ref="B2:M115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="L115" activeCellId="0" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="2" width="12.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="12.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="65.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="65.86"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <v>45374</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="6" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="s">
+      <c r="D4" s="14"/>
+    </row>
+    <row r="6" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2039,14 +2070,14 @@
         <v>24</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="L7" s="18" t="n">
+      <c r="L7" s="19" t="n">
         <v>0.093</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2069,14 +2100,14 @@
         <v>31</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="19" t="n">
         <v>0.093</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2101,11 +2132,11 @@
       <c r="L9" s="4" t="n">
         <v>4.19</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2130,11 +2161,11 @@
       <c r="L10" s="4" t="n">
         <v>2.26</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2159,11 +2190,11 @@
       <c r="L11" s="4" t="n">
         <v>4.56</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2182,11 +2213,11 @@
       <c r="L12" s="4" t="n">
         <v>0.363</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2211,11 +2242,11 @@
       <c r="L13" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2234,11 +2265,11 @@
       <c r="L14" s="4" t="n">
         <v>0.205</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2263,11 +2294,11 @@
       <c r="L15" s="4" t="n">
         <v>0.902</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
@@ -2292,11 +2323,11 @@
       <c r="L16" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -2321,11 +2352,11 @@
       <c r="L17" s="4" t="n">
         <v>0.048</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2350,11 +2381,11 @@
       <c r="L18" s="4" t="n">
         <v>0.156</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2379,11 +2410,11 @@
       <c r="L19" s="4" t="n">
         <v>0.419</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
@@ -2408,11 +2439,11 @@
       <c r="L20" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
@@ -2437,11 +2468,11 @@
       <c r="L21" s="4" t="n">
         <v>0.567</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>111</v>
       </c>
@@ -2460,11 +2491,11 @@
       <c r="L22" s="4" t="n">
         <v>0.837</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>117</v>
       </c>
@@ -2486,11 +2517,11 @@
       <c r="L23" s="4" t="n">
         <v>0.307</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2509,11 +2540,11 @@
       <c r="L24" s="4" t="n">
         <v>0.353</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2532,11 +2563,11 @@
       <c r="L25" s="4" t="n">
         <v>0.428</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2561,11 +2592,11 @@
       <c r="L26" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2590,11 +2621,11 @@
       <c r="L27" s="4" t="n">
         <v>0.233</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2619,11 +2650,11 @@
       <c r="L28" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2648,11 +2679,11 @@
       <c r="L29" s="4" t="n">
         <v>0.335</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2677,11 +2708,11 @@
       <c r="L30" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2706,11 +2737,11 @@
       <c r="L31" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
@@ -2738,11 +2769,11 @@
       <c r="L32" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
@@ -2770,11 +2801,11 @@
       <c r="L33" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -2802,11 +2833,11 @@
       <c r="L34" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
@@ -2834,11 +2865,11 @@
       <c r="L35" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
         <v>17</v>
       </c>
@@ -2866,11 +2897,11 @@
       <c r="L36" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -2898,11 +2929,11 @@
       <c r="L37" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
@@ -2930,11 +2961,11 @@
       <c r="L38" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
@@ -2962,11 +2993,11 @@
       <c r="L39" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2994,11 +3025,11 @@
       <c r="L40" s="4" t="n">
         <v>0.112</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
@@ -3026,11 +3057,11 @@
       <c r="L41" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
@@ -3055,11 +3086,11 @@
       <c r="L42" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3084,11 +3115,11 @@
       <c r="L43" s="4" t="n">
         <v>0.177</v>
       </c>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3113,11 +3144,11 @@
       <c r="L44" s="4" t="n">
         <v>0.177</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -3142,11 +3173,11 @@
       <c r="L45" s="4" t="n">
         <v>0.242</v>
       </c>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
@@ -3171,11 +3202,11 @@
       <c r="L46" s="4" t="n">
         <v>1.15</v>
       </c>
-      <c r="M46" s="20" t="s">
+      <c r="M46" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
         <v>100</v>
       </c>
@@ -3200,11 +3231,11 @@
       <c r="L47" s="4" t="n">
         <v>0.102</v>
       </c>
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3223,11 +3254,11 @@
       <c r="L48" s="4" t="n">
         <v>0.353</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
@@ -3255,11 +3286,11 @@
       <c r="L49" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
@@ -3287,11 +3318,11 @@
       <c r="L50" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M50" s="20" t="s">
+      <c r="M50" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
@@ -3310,11 +3341,11 @@
       <c r="L51" s="4" t="n">
         <v>0.326</v>
       </c>
-      <c r="M51" s="20" t="s">
+      <c r="M51" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>213</v>
       </c>
@@ -3339,11 +3370,11 @@
       <c r="L52" s="4" t="n">
         <v>0.186</v>
       </c>
-      <c r="M52" s="20" t="s">
+      <c r="M52" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -3368,11 +3399,11 @@
       <c r="L53" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M53" s="20" t="s">
+      <c r="M53" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
@@ -3400,11 +3431,11 @@
       <c r="L54" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M54" s="20" t="s">
+      <c r="M54" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
@@ -3429,11 +3460,11 @@
       <c r="L55" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="M55" s="20" t="s">
+      <c r="M55" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
         <v>17</v>
       </c>
@@ -3461,11 +3492,11 @@
       <c r="L56" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M56" s="20" t="s">
+      <c r="M56" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
         <v>17</v>
       </c>
@@ -3493,11 +3524,11 @@
       <c r="L57" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M57" s="20" t="s">
+      <c r="M57" s="21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
@@ -3522,11 +3553,11 @@
       <c r="L58" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="M58" s="20" t="s">
+      <c r="M58" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
         <v>235</v>
       </c>
@@ -3548,11 +3579,11 @@
       <c r="L59" s="4" t="n">
         <v>0.446</v>
       </c>
-      <c r="M59" s="20" t="s">
+      <c r="M59" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
         <v>241</v>
       </c>
@@ -3574,11 +3605,11 @@
       <c r="L60" s="4" t="n">
         <v>0.493</v>
       </c>
-      <c r="M60" s="20" t="s">
+      <c r="M60" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3597,11 +3628,11 @@
       <c r="L61" s="4" t="n">
         <v>0.307</v>
       </c>
-      <c r="M61" s="20" t="s">
+      <c r="M61" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
         <v>251</v>
       </c>
@@ -3620,11 +3651,11 @@
       <c r="L62" s="4" t="n">
         <v>0.446</v>
       </c>
-      <c r="M62" s="20" t="s">
+      <c r="M62" s="21" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
@@ -3643,11 +3674,11 @@
       <c r="L63" s="4" t="n">
         <v>0.577</v>
       </c>
-      <c r="M63" s="20" t="s">
+      <c r="M63" s="21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
         <v>260</v>
       </c>
@@ -3672,11 +3703,11 @@
       <c r="L64" s="4" t="n">
         <v>1.37</v>
       </c>
-      <c r="M64" s="20" t="s">
+      <c r="M64" s="21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
@@ -3695,11 +3726,11 @@
       <c r="L65" s="4" t="n">
         <v>0.353</v>
       </c>
-      <c r="M65" s="20" t="s">
+      <c r="M65" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
         <v>251</v>
       </c>
@@ -3718,11 +3749,11 @@
       <c r="L66" s="4" t="n">
         <v>1.45</v>
       </c>
-      <c r="M66" s="20" t="s">
+      <c r="M66" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
         <v>60</v>
       </c>
@@ -3747,11 +3778,11 @@
       <c r="L67" s="4" t="n">
         <v>0.409</v>
       </c>
-      <c r="M67" s="21" t="s">
+      <c r="M67" s="22" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,11 +3807,11 @@
       <c r="L68" s="4" t="n">
         <v>0.143</v>
       </c>
-      <c r="M68" s="21" t="s">
+      <c r="M68" s="22" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
         <v>280</v>
       </c>
@@ -3799,11 +3830,11 @@
       <c r="L69" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M69" s="21" t="s">
+      <c r="M69" s="22" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
         <v>241</v>
       </c>
@@ -3825,11 +3856,11 @@
       <c r="L70" s="4" t="n">
         <v>0.513</v>
       </c>
-      <c r="M70" s="21" t="s">
+      <c r="M70" s="22" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
@@ -3857,11 +3888,11 @@
       <c r="L71" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M71" s="21" t="s">
+      <c r="M71" s="22" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -3889,11 +3920,11 @@
       <c r="L72" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M72" s="21" t="s">
+      <c r="M72" s="22" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
         <v>295</v>
       </c>
@@ -3915,11 +3946,11 @@
       <c r="L73" s="4" t="n">
         <v>0.371</v>
       </c>
-      <c r="M73" s="21" t="s">
+      <c r="M73" s="22" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
         <v>299</v>
       </c>
@@ -3941,11 +3972,11 @@
       <c r="L74" s="4" t="n">
         <v>1.24</v>
       </c>
-      <c r="M74" s="21" t="s">
+      <c r="M74" s="22" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
         <v>117</v>
       </c>
@@ -3967,11 +3998,11 @@
       <c r="L75" s="4" t="n">
         <v>0.304</v>
       </c>
-      <c r="M75" s="21" t="s">
+      <c r="M75" s="22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
         <v>117</v>
       </c>
@@ -3993,11 +4024,11 @@
       <c r="L76" s="4" t="n">
         <v>0.105</v>
       </c>
-      <c r="M76" s="21" t="s">
+      <c r="M76" s="22" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
@@ -4022,11 +4053,11 @@
       <c r="L77" s="4" t="n">
         <v>0.494</v>
       </c>
-      <c r="M77" s="21" t="s">
+      <c r="M77" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
         <v>260</v>
       </c>
@@ -4051,11 +4082,11 @@
       <c r="L78" s="4" t="n">
         <v>0.209</v>
       </c>
-      <c r="M78" s="21" t="s">
+      <c r="M78" s="22" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
         <v>71</v>
       </c>
@@ -4080,11 +4111,11 @@
       <c r="L79" s="4" t="n">
         <v>1.68</v>
       </c>
-      <c r="M79" s="21" t="s">
+      <c r="M79" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
         <v>322</v>
       </c>
@@ -4109,11 +4140,11 @@
       <c r="L80" s="4" t="n">
         <v>6.54</v>
       </c>
-      <c r="M80" s="21" t="s">
+      <c r="M80" s="22" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
         <v>235</v>
       </c>
@@ -4135,11 +4166,11 @@
       <c r="L81" s="4" t="n">
         <v>0.608</v>
       </c>
-      <c r="M81" s="21" t="s">
+      <c r="M81" s="22" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
         <v>54</v>
       </c>
@@ -4158,11 +4189,11 @@
       <c r="L82" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="M82" s="21" t="s">
+      <c r="M82" s="22" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
         <v>26</v>
       </c>
@@ -4187,11 +4218,11 @@
       <c r="L83" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M83" s="21" t="s">
+      <c r="M83" s="22" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
         <v>26</v>
       </c>
@@ -4216,11 +4247,11 @@
       <c r="L84" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="M84" s="21" t="s">
+      <c r="M84" s="22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
@@ -4245,11 +4276,11 @@
       <c r="L85" s="4" t="n">
         <v>0.181</v>
       </c>
-      <c r="M85" s="21" t="s">
+      <c r="M85" s="22" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
         <v>79</v>
       </c>
@@ -4274,11 +4305,11 @@
       <c r="L86" s="4" t="n">
         <v>0.266</v>
       </c>
-      <c r="M86" s="21" t="s">
+      <c r="M86" s="22" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,11 +4328,11 @@
       <c r="L87" s="4" t="n">
         <v>0.114</v>
       </c>
-      <c r="M87" s="21" t="s">
+      <c r="M87" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
         <v>347</v>
       </c>
@@ -4323,7 +4354,7 @@
       <c r="L88" s="4" t="n">
         <v>0.608</v>
       </c>
-      <c r="M88" s="21" t="s">
+      <c r="M88" s="22" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4349,11 +4380,11 @@
       <c r="L89" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M89" s="21" t="s">
+      <c r="M89" s="22" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
         <v>54</v>
       </c>
@@ -4372,11 +4403,11 @@
       <c r="L90" s="4" t="n">
         <v>0.266</v>
       </c>
-      <c r="M90" s="21" t="s">
+      <c r="M90" s="22" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,11 +4426,11 @@
       <c r="L91" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="M91" s="21" t="s">
+      <c r="M91" s="22" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
         <v>361</v>
       </c>
@@ -4421,11 +4452,11 @@
       <c r="L92" s="4" t="n">
         <v>0.295</v>
       </c>
-      <c r="M92" s="21" t="s">
+      <c r="M92" s="22" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
         <v>17</v>
       </c>
@@ -4453,11 +4484,11 @@
       <c r="L93" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M93" s="21" t="s">
+      <c r="M93" s="22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
         <v>347</v>
       </c>
@@ -4479,11 +4510,11 @@
       <c r="L94" s="4" t="n">
         <v>0.257</v>
       </c>
-      <c r="M94" s="21" t="s">
+      <c r="M94" s="22" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
         <v>33</v>
       </c>
@@ -4508,11 +4539,11 @@
       <c r="L95" s="4" t="n">
         <v>8.41</v>
       </c>
-      <c r="M95" s="21" t="s">
+      <c r="M95" s="22" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
         <v>213</v>
       </c>
@@ -4537,11 +4568,11 @@
       <c r="L96" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="M96" s="21" t="s">
+      <c r="M96" s="22" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
         <v>26</v>
       </c>
@@ -4566,11 +4597,11 @@
       <c r="L97" s="4" t="n">
         <v>0.475</v>
       </c>
-      <c r="M97" s="21" t="s">
+      <c r="M97" s="22" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
         <v>117</v>
       </c>
@@ -4592,11 +4623,11 @@
       <c r="L98" s="4" t="n">
         <v>0.599</v>
       </c>
-      <c r="M98" s="21" t="s">
+      <c r="M98" s="22" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
         <v>26</v>
       </c>
@@ -4621,11 +4652,11 @@
       <c r="L99" s="4" t="n">
         <v>0.722</v>
       </c>
-      <c r="M99" s="21" t="s">
+      <c r="M99" s="22" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
         <v>117</v>
       </c>
@@ -4647,11 +4678,11 @@
       <c r="L100" s="4" t="n">
         <v>0.399</v>
       </c>
-      <c r="M100" s="21" t="s">
+      <c r="M100" s="22" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
         <v>79</v>
       </c>
@@ -4676,11 +4707,11 @@
       <c r="L101" s="4" t="n">
         <v>0.485</v>
       </c>
-      <c r="M101" s="21" t="s">
+      <c r="M101" s="22" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
         <v>26</v>
       </c>
@@ -4705,11 +4736,11 @@
       <c r="L102" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M102" s="21" t="s">
+      <c r="M102" s="22" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
         <v>71</v>
       </c>
@@ -4734,11 +4765,11 @@
       <c r="L103" s="4" t="n">
         <v>0.827</v>
       </c>
-      <c r="M103" s="21" t="s">
+      <c r="M103" s="22" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
@@ -4766,11 +4797,11 @@
       <c r="L104" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M104" s="21" t="s">
+      <c r="M104" s="22" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
         <v>54</v>
       </c>
@@ -4789,11 +4820,11 @@
       <c r="L105" s="4" t="n">
         <v>0.304</v>
       </c>
-      <c r="M105" s="21" t="s">
+      <c r="M105" s="22" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
@@ -4812,11 +4843,11 @@
       <c r="L106" s="4" t="n">
         <v>0.352</v>
       </c>
-      <c r="M106" s="21" t="s">
+      <c r="M106" s="22" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
         <v>235</v>
       </c>
@@ -4838,11 +4869,11 @@
       <c r="L107" s="4" t="n">
         <v>0.247</v>
       </c>
-      <c r="M107" s="21" t="s">
+      <c r="M107" s="22" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
@@ -4864,11 +4895,11 @@
       <c r="L108" s="4" t="n">
         <v>0.979</v>
       </c>
-      <c r="M108" s="21" t="s">
+      <c r="M108" s="22" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
         <v>17</v>
       </c>
@@ -4896,11 +4927,11 @@
       <c r="L109" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M109" s="21" t="s">
+      <c r="M109" s="22" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
@@ -4925,11 +4956,11 @@
       <c r="L110" s="4" t="n">
         <v>3.5</v>
       </c>
-      <c r="M110" s="21" t="s">
+      <c r="M110" s="22" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
         <v>26</v>
       </c>
@@ -4954,11 +4985,11 @@
       <c r="L111" s="4" t="n">
         <v>0.095</v>
       </c>
-      <c r="M111" s="21" t="s">
+      <c r="M111" s="22" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
         <v>235</v>
       </c>
@@ -4980,11 +5011,11 @@
       <c r="L112" s="4" t="n">
         <v>0.494</v>
       </c>
-      <c r="M112" s="21" t="s">
+      <c r="M112" s="22" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
         <v>235</v>
       </c>
@@ -5006,12 +5037,70 @@
       <c r="L113" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="M113" s="21" t="s">
+      <c r="M113" s="22" t="s">
         <v>437</v>
       </c>
     </row>
+    <row r="114" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="L115" s="4" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:M113"/>
+  <autoFilter ref="B6:M115">
+    <filterColumn colId="0" hiddenButton="1">
+      <filters>
+        <filter val="Mosfet"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="M7" r:id="rId1" display="https://nl.mouser.com/ProductDetail/Vishay-Dale/CRCW04022K20JNED?qs=hD42E%2F8yzjr994JNQ8Enjw%3D%3D"/>
     <hyperlink ref="M8" r:id="rId2" display="https://nl.mouser.com/ProductDetail/KYOCERA-AVX/04026C104KAT2A?qs=Q0wCMCRSJ1vLqipDGm0h%252BA%3D%3D"/>
@@ -5076,7 +5165,7 @@
     <hyperlink ref="M67" r:id="rId61" display="https://eu.mouser.com/ProductDetail/Cree-LED/CLY6D-FKC-CK1N1D1BB7D3D3?qs=3ZbGupGMFUcwV8ee%2FC0TnQ%3D%3D"/>
     <hyperlink ref="M68" r:id="rId62" display="https://eu.mouser.com/ProductDetail/Wurth-Elektronik/150060GS75000?qs=LlUlMxKIyB0UYkq5lDO8nA%3D%3D"/>
     <hyperlink ref="M69" r:id="rId63" display="https://nl.mouser.com/ProductDetail/Micro-Commercial-Components-MCC/BZT52C5V6-TP?qs=ZNK0BnemlqEFe9KULrNePQ%3D%3D"/>
-    <hyperlink ref="M70" r:id="rId64" display="https://nl.mouser.com/ProductDetail/ECS/ECS-80-8-33B2Q-CVY-TR3?qs=dbcCsuKDzFVl0H%252BeEfWd9g"/>
+    <hyperlink ref="M70" r:id="rId64" display="https://nl.mouser.com/ProductDetail/ECS/ECS-80-8-33B2Q-CVY-TR3?qs=dbcCsuKDzFVl0H%252BeEfWd9g%3D%3D"/>
     <hyperlink ref="M71" r:id="rId65" display="https://nl.mouser.com/ProductDetail/YAGEO/AC0402FR-0788K7L?qs=UBLIud9aIG2CqTllOErnqg%3D%3D"/>
     <hyperlink ref="M72" r:id="rId66" display="https://nl.mouser.com/ProductDetail/YAGEO/AC0402FR-0722K1L?qs=UBLIud9aIG1Jf9OUfe%252BKIg%3D%3D"/>
     <hyperlink ref="M73" r:id="rId67" display="https://nl.mouser.com/ProductDetail/onsemi/NSS30101LT1G?qs=ZXBb0xZ9WeA7Sk469FceMw%3D%3D"/>
@@ -5120,6 +5209,8 @@
     <hyperlink ref="M111" r:id="rId105" display="https://nl.mouser.com/ProductDetail/TAIYO-YUDEN/TMK105BJ104KV-F?qs=PzICbMaShUcuRhf9Ji%2F5mA%3D%3D"/>
     <hyperlink ref="M112" r:id="rId106" display="https://nl.mouser.com/ProductDetail/Littelfuse/0407006.WR?qs=sPbYRqrBIVmH0oD7q%252BOKfw%3D%3D"/>
     <hyperlink ref="M113" r:id="rId107" display="https://nl.mouser.com/ProductDetail/Bourns/SF-1206HH20M-2?qs=gTYE2QTfZfSIcL5c8oAFag%3D%3D"/>
+    <hyperlink ref="M114" r:id="rId108" display="https://nl.mouser.com/ProductDetail/Murata-Electronics/GCM1555C1H8R0DA16D?qs=ui%252B2d9lVEI56SuLlbLRhpw%3D%3D"/>
+    <hyperlink ref="M115" r:id="rId109" display="https://nl.mouser.com/ProductDetail/ROHM-Semiconductor/RUM001L02T2CL?qs=QcFhgjUTvvq561FHtbVAHA%3D%3D"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5128,6 +5219,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId108"/>
+  <drawing r:id="rId110"/>
 </worksheet>
 </file>
--- a/BOM_Processor/20240322-Electrical component library.xlsx
+++ b/BOM_Processor/20240322-Electrical component library.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Components" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$115</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$134</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="517">
   <si>
     <t xml:space="preserve">Document:</t>
   </si>
@@ -1364,6 +1364,216 @@
   </si>
   <si>
     <t xml:space="preserve">https://nl.mouser.com/ProductDetail/ROHM-Semiconductor/RUM001L02T2CL?qs=QcFhgjUTvvq561FHtbVAHA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM15T15A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO-214AB-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/STMicroelectronics/SM15T15A?qs=NT9noNhSp6fKGZXAPqXGSQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSNL1206FT20L0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEI Stackpole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/SEI-Stackpole/CSNL1206FT20L0?qs=IPgv5n7u5QYaSwXRSMXcSA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSM080N03EPQ56_RLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDFN-56-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Taiwan-Semiconductor/TSM080N03EPQ56-RLG?qs=5aG0NVq1C4yp2zSLivBAhw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLZ1608A2R2MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/TDK/MLZ1608A2R2MT?qs=chjFIDm9dboKeT4jRGqjSw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32G0B1CBT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64Mhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/STMicroelectronics/STM32G0B1CBT3?qs=Jm2GQyTW%2FbiDRW500iRxHQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39-30-6087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x4-pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Molex/39-30-6087?qs=cm0cgiBciNbas9C0adTFzQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM155R71H223KA12D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Murata-Electronics/GRM155R71H223KA12D?qs=Dfh4SrgScWyE65FKEkixtw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402YA8R0DAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/KYOCERA-AVX/0402YA8R0DAT2A?qs=cnDM9bjyeUgb33j4CSRbcA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRT188C81E475KE13D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Murata-Electronics/GRT188C81E475KE13D?qs=drgMNd%252BkGPMKgxVy0k4hkQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0679L8000-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel Fuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Bel-Fuse/0679L8000-05?qs=ZqXcJfGlKsiv8iEKvn6xcw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHLP3232DZER4R7M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Vishay-Dale/IHLP3232DZER4R7M11?qs=Nbmv7C3%2FzlBkjG9ees3Knw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF0402JR-072R2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/YAGEO/AF0402JR-072R2L?qs=tggtontpCXPmK9zDAYOzgw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE-FT1H331AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Panasonic/EEE-FT1H331AP?qs=CMJjuEs1%252BuFKH1%2FdyV0DMg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESD9P5.0ST5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD-923-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/onsemi/ESD9P5.0ST5G?qs=b5%252BO11yZ0ajVekAdu65x%252BA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1005X5R1H222M050BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/TDK/C1005X5R1H222M050BA?qs=xLDY6iXSiQatLyIoAnJIPg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMC6200-TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TQFP-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/ADI-Trinamic/TMC6200-TA?qs=TiOZkKH1s2S63bdxD7r%252BIw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL31B475KAHNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B475KAHNNNE?qs=349EhDEZ59oSE8dT4yS8Ow%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM339LVPWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSSOP-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Texas-Instruments/LM339LVPWR?qs=QNEnbhJQKvZwu88lvYobUw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM321LVIDCKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC-70-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Texas-Instruments/LM321LVIDCKR?qs=qSfuJ%252Bfl%2Fd6RcyTOjkRx5Q%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1751,9 +1961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1671480</xdr:colOff>
+      <xdr:colOff>1671120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1767,7 +1977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5455080" y="212040"/>
-          <a:ext cx="1198440" cy="548640"/>
+          <a:ext cx="1198080" cy="548280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,15 +2166,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M115"/>
+  <dimension ref="B2:M134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L115" activeCellId="0" sqref="L115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="6" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E138" activeCellId="0" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2044,7 +2254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2077,7 +2287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2107,7 +2317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,7 +2346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2165,7 +2375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2194,7 +2404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2217,7 +2427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2246,7 +2456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2269,7 +2479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2298,7 +2508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
@@ -2327,7 +2537,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -2356,7 +2566,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2385,7 +2595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2414,7 +2624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
@@ -2443,7 +2653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
@@ -2472,7 +2682,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>111</v>
       </c>
@@ -2495,7 +2705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>117</v>
       </c>
@@ -2521,7 +2731,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,7 +2754,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2567,7 +2777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2596,7 +2806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2625,7 +2835,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2654,7 +2864,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,7 +2893,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2712,7 +2922,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2951,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
@@ -2773,7 +2983,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +3015,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -2837,7 +3047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
@@ -2869,7 +3079,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
         <v>17</v>
       </c>
@@ -2901,7 +3111,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -2933,7 +3143,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
@@ -2965,7 +3175,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
@@ -2997,7 +3207,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3239,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
@@ -3061,7 +3271,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
@@ -3090,7 +3300,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,7 +3329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3148,7 +3358,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3387,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
@@ -3206,7 +3416,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
         <v>100</v>
       </c>
@@ -3235,7 +3445,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3258,7 +3468,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
@@ -3290,7 +3500,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
@@ -3322,7 +3532,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
@@ -3345,7 +3555,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>213</v>
       </c>
@@ -3374,7 +3584,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -3403,7 +3613,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
@@ -3435,7 +3645,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
@@ -3464,7 +3674,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
         <v>17</v>
       </c>
@@ -3496,7 +3706,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
         <v>17</v>
       </c>
@@ -3528,7 +3738,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
@@ -3557,7 +3767,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
         <v>235</v>
       </c>
@@ -3583,7 +3793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
         <v>241</v>
       </c>
@@ -3609,7 +3819,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3632,7 +3842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
         <v>251</v>
       </c>
@@ -3655,7 +3865,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
@@ -3678,7 +3888,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
         <v>260</v>
       </c>
@@ -3707,7 +3917,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
@@ -3730,7 +3940,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
         <v>251</v>
       </c>
@@ -3753,7 +3963,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,7 +3992,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3811,7 +4021,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
         <v>280</v>
       </c>
@@ -3834,7 +4044,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
         <v>241</v>
       </c>
@@ -3860,7 +4070,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
@@ -3892,7 +4102,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -3924,7 +4134,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
         <v>295</v>
       </c>
@@ -3950,7 +4160,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
         <v>299</v>
       </c>
@@ -3976,7 +4186,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
         <v>117</v>
       </c>
@@ -4002,7 +4212,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
         <v>117</v>
       </c>
@@ -4028,7 +4238,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
@@ -4057,7 +4267,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
         <v>260</v>
       </c>
@@ -4086,7 +4296,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
         <v>71</v>
       </c>
@@ -4115,7 +4325,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
         <v>322</v>
       </c>
@@ -4144,7 +4354,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
         <v>235</v>
       </c>
@@ -4170,7 +4380,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
         <v>54</v>
       </c>
@@ -4193,7 +4403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
         <v>26</v>
       </c>
@@ -4222,7 +4432,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
         <v>26</v>
       </c>
@@ -4251,7 +4461,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
@@ -4280,7 +4490,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
         <v>79</v>
       </c>
@@ -4309,7 +4519,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
@@ -4332,7 +4542,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
         <v>347</v>
       </c>
@@ -4384,7 +4594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
         <v>54</v>
       </c>
@@ -4407,7 +4617,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4430,7 +4640,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
         <v>361</v>
       </c>
@@ -4456,7 +4666,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
         <v>17</v>
       </c>
@@ -4488,7 +4698,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
         <v>347</v>
       </c>
@@ -4514,7 +4724,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
         <v>33</v>
       </c>
@@ -4543,7 +4753,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
         <v>213</v>
       </c>
@@ -4572,7 +4782,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
         <v>26</v>
       </c>
@@ -4601,7 +4811,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
         <v>117</v>
       </c>
@@ -4627,7 +4837,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
         <v>26</v>
       </c>
@@ -4656,7 +4866,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
         <v>117</v>
       </c>
@@ -4682,7 +4892,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
         <v>79</v>
       </c>
@@ -4711,7 +4921,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
         <v>26</v>
       </c>
@@ -4740,7 +4950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
         <v>71</v>
       </c>
@@ -4769,7 +4979,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
@@ -4801,7 +5011,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
         <v>54</v>
       </c>
@@ -4824,7 +5034,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
@@ -4847,7 +5057,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
         <v>235</v>
       </c>
@@ -4873,7 +5083,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
@@ -4899,7 +5109,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
         <v>17</v>
       </c>
@@ -4931,7 +5141,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
@@ -4960,7 +5170,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
         <v>26</v>
       </c>
@@ -4989,7 +5199,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
         <v>235</v>
       </c>
@@ -5015,7 +5225,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
         <v>235</v>
       </c>
@@ -5041,7 +5251,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
         <v>26</v>
       </c>
@@ -5059,6 +5269,9 @@
       </c>
       <c r="G114" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="L114" s="4" t="n">
         <v>0.095</v>
@@ -5093,14 +5306,532 @@
         <v>446</v>
       </c>
     </row>
+    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L116" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L117" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L118" s="4" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L119" s="4" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L120" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L121" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L122" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L123" s="4" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L124" s="4" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L125" s="4" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L126" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L127" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L129" s="4" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L130" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L131" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L132" s="4" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L133" s="4" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L134" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:M115">
-    <filterColumn colId="0" hiddenButton="1">
-      <filters>
-        <filter val="Mosfet"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M134"/>
   <hyperlinks>
     <hyperlink ref="M7" r:id="rId1" display="https://nl.mouser.com/ProductDetail/Vishay-Dale/CRCW04022K20JNED?qs=hD42E%2F8yzjr994JNQ8Enjw%3D%3D"/>
     <hyperlink ref="M8" r:id="rId2" display="https://nl.mouser.com/ProductDetail/KYOCERA-AVX/04026C104KAT2A?qs=Q0wCMCRSJ1vLqipDGm0h%252BA%3D%3D"/>
@@ -5211,6 +5942,25 @@
     <hyperlink ref="M113" r:id="rId107" display="https://nl.mouser.com/ProductDetail/Bourns/SF-1206HH20M-2?qs=gTYE2QTfZfSIcL5c8oAFag%3D%3D"/>
     <hyperlink ref="M114" r:id="rId108" display="https://nl.mouser.com/ProductDetail/Murata-Electronics/GCM1555C1H8R0DA16D?qs=ui%252B2d9lVEI56SuLlbLRhpw%3D%3D"/>
     <hyperlink ref="M115" r:id="rId109" display="https://nl.mouser.com/ProductDetail/ROHM-Semiconductor/RUM001L02T2CL?qs=QcFhgjUTvvq561FHtbVAHA%3D%3D"/>
+    <hyperlink ref="M116" r:id="rId110" display="https://nl.mouser.com/ProductDetail/STMicroelectronics/SM15T15A?qs=NT9noNhSp6fKGZXAPqXGSQ%3D%3D"/>
+    <hyperlink ref="M117" r:id="rId111" display="https://nl.mouser.com/ProductDetail/SEI-Stackpole/CSNL1206FT20L0?qs=IPgv5n7u5QYaSwXRSMXcSA%3D%3D"/>
+    <hyperlink ref="M118" r:id="rId112" display="https://nl.mouser.com/ProductDetail/Taiwan-Semiconductor/TSM080N03EPQ56-RLG?qs=5aG0NVq1C4yp2zSLivBAhw%3D%3D"/>
+    <hyperlink ref="M119" r:id="rId113" display="https://nl.mouser.com/ProductDetail/TDK/MLZ1608A2R2MT?qs=chjFIDm9dboKeT4jRGqjSw%3D%3D"/>
+    <hyperlink ref="M120" r:id="rId114" display="https://nl.mouser.com/ProductDetail/STMicroelectronics/STM32G0B1CBT3?qs=Jm2GQyTW%2FbiDRW500iRxHQ%3D%3D"/>
+    <hyperlink ref="M121" r:id="rId115" display="https://nl.mouser.com/ProductDetail/Molex/39-30-6087?qs=cm0cgiBciNbas9C0adTFzQ%3D%3D"/>
+    <hyperlink ref="M122" r:id="rId116" display="https://nl.mouser.com/ProductDetail/Murata-Electronics/GRM155R71H223KA12D?qs=Dfh4SrgScWyE65FKEkixtw%3D%3D"/>
+    <hyperlink ref="M123" r:id="rId117" display="https://nl.mouser.com/ProductDetail/KYOCERA-AVX/0402YA8R0DAT2A?qs=cnDM9bjyeUgb33j4CSRbcA%3D%3D"/>
+    <hyperlink ref="M124" r:id="rId118" display="https://nl.mouser.com/ProductDetail/Murata-Electronics/GRT188C81E475KE13D?qs=drgMNd%252BkGPMKgxVy0k4hkQ%3D%3D"/>
+    <hyperlink ref="M125" r:id="rId119" display="https://nl.mouser.com/ProductDetail/Bel-Fuse/0679L8000-05?qs=ZqXcJfGlKsiv8iEKvn6xcw%3D%3D"/>
+    <hyperlink ref="M126" r:id="rId120" display="https://nl.mouser.com/ProductDetail/Vishay-Dale/IHLP3232DZER4R7M11?qs=Nbmv7C3%2FzlBkjG9ees3Knw%3D%3D"/>
+    <hyperlink ref="M127" r:id="rId121" display="https://nl.mouser.com/ProductDetail/YAGEO/AF0402JR-072R2L?qs=tggtontpCXPmK9zDAYOzgw%3D%3D"/>
+    <hyperlink ref="M128" r:id="rId122" display="https://nl.mouser.com/ProductDetail/Panasonic/EEE-FT1H331AP?qs=CMJjuEs1%252BuFKH1%2FdyV0DMg%3D%3D"/>
+    <hyperlink ref="M129" r:id="rId123" display="https://nl.mouser.com/ProductDetail/onsemi/ESD9P5.0ST5G?qs=b5%252BO11yZ0ajVekAdu65x%252BA%3D%3D"/>
+    <hyperlink ref="M130" r:id="rId124" display="https://nl.mouser.com/ProductDetail/TDK/C1005X5R1H222M050BA?qs=xLDY6iXSiQatLyIoAnJIPg%3D%3D"/>
+    <hyperlink ref="M131" r:id="rId125" display="https://nl.mouser.com/ProductDetail/ADI-Trinamic/TMC6200-TA?qs=TiOZkKH1s2S63bdxD7r%252BIw%3D%3D"/>
+    <hyperlink ref="M132" r:id="rId126" display="https://nl.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B475KAHNNNE?qs=349EhDEZ59oSE8dT4yS8Ow%3D%3D"/>
+    <hyperlink ref="M133" r:id="rId127" display="https://nl.mouser.com/ProductDetail/Texas-Instruments/LM339LVPWR?qs=QNEnbhJQKvZwu88lvYobUw%3D%3D"/>
+    <hyperlink ref="M134" r:id="rId128" display="https://nl.mouser.com/ProductDetail/Texas-Instruments/LM321LVIDCKR?qs=qSfuJ%252Bfl%2Fd6RcyTOjkRx5Q%3D%3D"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5219,6 +5969,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId110"/>
+  <drawing r:id="rId129"/>
 </worksheet>
 </file>
--- a/BOM_Processor/20240322-Electrical component library.xlsx
+++ b/BOM_Processor/20240322-Electrical component library.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Components" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$134</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$143</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="551">
   <si>
     <t xml:space="preserve">Document:</t>
   </si>
@@ -337,6 +337,9 @@
     <t xml:space="preserve">1k</t>
   </si>
   <si>
+    <t xml:space="preserve">25%</t>
+  </si>
+  <si>
     <t xml:space="preserve">350mA</t>
   </si>
   <si>
@@ -1574,6 +1577,105 @@
   </si>
   <si>
     <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Texas-Instruments/LM321LVIDCKR?qs=qSfuJ%252Bfl%2Fd6RcyTOjkRx5Q%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS636_SL50_SMTR_LFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C&amp;K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/CK/PTS636-SL50-SMTR-LFS?qs=vLWxofP3U2zRoRV76Po6zQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP7113ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingbright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Kingbright/WP7113ID?qs=hyavMCx%252BcmDJhCThgY7pfQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM18KG101TN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Murata-Electronics/BLM18KG101TN1D?qs=MY6wChARw2zdno9LTSL6Ng%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAY16-681J4LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x1603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Bourns/CAY16-681J4LF?qs=fd0Ij%252BN8svzpg8SscutFRQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESD5Z5.0F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Nexperia/PESD5Z5.0F?qs=HNBw3F7vE2wb3Eh3cMl6Jg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP7113ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Kingbright/WP7113ND?qs=CJFmpBjNieP5MCFQ3vDfmg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP7113GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Kingbright/WP7113GD?qs=pz0eHrWKk7njL1kTYKysuw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTINY9-TS8R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Mhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Microchip-Technology/ATTINY9-TS8R?qs=%2Fqzd9s%252BcLd6Ex7DNcGSsRA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -2169,12 +2271,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M134"/>
+  <dimension ref="B2:M142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E138" activeCellId="0" sqref="E138"/>
+      <selection pane="bottomLeft" activeCell="C149" activeCellId="0" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2640,17 +2742,17 @@
       <c r="F20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0.25</v>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,19 +2760,19 @@
         <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>76</v>
@@ -2679,56 +2781,56 @@
         <v>0.567</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0.837</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0.307</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,13 +2838,13 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>69</v>
@@ -2751,7 +2853,7 @@
         <v>0.353</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,7 +2861,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -2768,13 +2870,13 @@
         <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0.428</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,10 +2884,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -2803,7 +2905,7 @@
         <v>0.093</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,28 +2913,28 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0.233</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,28 +2942,28 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2971,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>102</v>
@@ -2878,19 +2980,19 @@
         <v>95</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0.335</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,28 +3000,28 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,7 +3029,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>102</v>
@@ -2936,19 +3038,19 @@
         <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +3058,10 @@
         <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -2980,7 +3082,7 @@
         <v>0.093</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,10 +3090,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -3012,7 +3114,7 @@
         <v>0.093</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,16 +3122,16 @@
         <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>97</v>
@@ -3044,7 +3146,7 @@
         <v>0.093</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,16 +3154,16 @@
         <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>97</v>
@@ -3076,7 +3178,7 @@
         <v>0.093</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,16 +3186,16 @@
         <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>97</v>
@@ -3108,7 +3210,7 @@
         <v>0.093</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,16 +3218,16 @@
         <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>97</v>
@@ -3140,7 +3242,7 @@
         <v>0.093</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,16 +3250,16 @@
         <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>97</v>
@@ -3166,13 +3268,13 @@
         <v>23</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,10 +3282,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -3204,7 +3306,7 @@
         <v>0.093</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,10 +3314,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -3236,7 +3338,7 @@
         <v>0.112</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,7 +3346,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>94</v>
@@ -3253,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>97</v>
@@ -3262,13 +3364,13 @@
         <v>23</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,16 +3378,16 @@
         <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>30</v>
@@ -3297,7 +3399,7 @@
         <v>0.093</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,7 +3407,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>62</v>
@@ -3314,10 +3416,10 @@
         <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>66</v>
@@ -3326,7 +3428,7 @@
         <v>0.177</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3436,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>62</v>
@@ -3343,10 +3445,10 @@
         <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>66</v>
@@ -3355,7 +3457,7 @@
         <v>0.177</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3465,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>28</v>
@@ -3372,7 +3474,7 @@
         <v>20</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>22</v>
@@ -3384,7 +3486,7 @@
         <v>0.242</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,10 +3494,10 @@
         <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>82</v>
@@ -3404,16 +3506,16 @@
         <v>88</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>1.15</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,10 +3523,10 @@
         <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>95</v>
@@ -3432,17 +3534,17 @@
       <c r="F47" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="G47" s="2" t="n">
-        <v>0.25</v>
+      <c r="G47" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0.102</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,13 +3552,13 @@
         <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>58</v>
@@ -3465,7 +3567,7 @@
         <v>0.353</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,10 +3575,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -3497,7 +3599,7 @@
         <v>0.093</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,10 +3607,10 @@
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -3523,13 +3625,13 @@
         <v>23</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,51 +3639,51 @@
         <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0.326</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0.186</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,7 +3691,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>102</v>
@@ -3604,13 +3706,13 @@
         <v>30</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3720,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
@@ -3627,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>22</v>
@@ -3642,7 +3744,7 @@
         <v>0.093</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,28 +3752,28 @@
         <v>26</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0.27</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,10 +3781,10 @@
         <v>17</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -3703,7 +3805,7 @@
         <v>0.093</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,10 +3813,10 @@
         <v>17</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -3735,7 +3837,7 @@
         <v>0.093</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,80 +3845,80 @@
         <v>26</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0.093</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>0.446</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>0.493</v>
       </c>
       <c r="M60" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,45 +3926,45 @@
         <v>54</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0.307</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0.446</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,51 +3972,51 @@
         <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0.577</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>1.37</v>
       </c>
       <c r="M64" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,13 +4024,13 @@
         <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>58</v>
@@ -3937,30 +4039,30 @@
         <v>0.353</v>
       </c>
       <c r="M65" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>1.45</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,28 +4070,28 @@
         <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0.409</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,7 +4099,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
@@ -4006,68 +4108,68 @@
         <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0.143</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0.095</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0.513</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,16 +4177,16 @@
         <v>17</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>97</v>
@@ -4099,7 +4201,7 @@
         <v>0.095</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,16 +4209,16 @@
         <v>17</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>97</v>
@@ -4131,111 +4233,111 @@
         <v>0.095</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L73" s="4" t="n">
         <v>0.371</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L74" s="4" t="n">
         <v>1.24</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L75" s="4" t="n">
         <v>0.304</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0.105</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,10 +4345,10 @@
         <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>82</v>
@@ -4255,7 +4357,7 @@
         <v>88</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>46</v>
@@ -4264,21 +4366,21 @@
         <v>0.494</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>58</v>
@@ -4287,13 +4389,13 @@
         <v>76</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>0.209</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,74 +4403,74 @@
         <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>1.68</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L80" s="4" t="n">
         <v>6.54</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>23</v>
@@ -4377,7 +4479,7 @@
         <v>0.608</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,22 +4487,22 @@
         <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,28 +4510,28 @@
         <v>26</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L83" s="4" t="n">
         <v>0.095</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,28 +4539,28 @@
         <v>26</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L84" s="4" t="n">
         <v>0.19</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,28 +4568,28 @@
         <v>26</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>0.181</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,19 +4597,19 @@
         <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>46</v>
@@ -4516,7 +4618,7 @@
         <v>0.266</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,13 +4626,13 @@
         <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>58</v>
@@ -4539,59 +4641,59 @@
         <v>0.114</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L88" s="4" t="n">
         <v>0.608</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L89" s="4" t="n">
         <v>0.095</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,13 +4701,13 @@
         <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>58</v>
@@ -4614,7 +4716,7 @@
         <v>0.266</v>
       </c>
       <c r="M90" s="22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,33 +4724,33 @@
         <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L91" s="4" t="n">
         <v>0.39</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>82</v>
@@ -4657,13 +4759,13 @@
         <v>91</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L92" s="4" t="n">
         <v>0.295</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,16 +4773,16 @@
         <v>17</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>97</v>
@@ -4695,33 +4797,33 @@
         <v>0.095</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L94" s="4" t="n">
         <v>0.257</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,19 +4831,19 @@
         <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>38</v>
@@ -4750,36 +4852,36 @@
         <v>8.41</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L96" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,54 +4889,54 @@
         <v>26</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L97" s="4" t="n">
         <v>0.475</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>0.599</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,54 +4944,54 @@
         <v>26</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L99" s="4" t="n">
         <v>0.722</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L100" s="4" t="n">
         <v>0.399</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,7 +4999,7 @@
         <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>81</v>
@@ -4918,7 +5020,7 @@
         <v>0.485</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,28 +5028,28 @@
         <v>26</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0.095</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,19 +5057,19 @@
         <v>71</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>77</v>
@@ -4976,7 +5078,7 @@
         <v>0.827</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +5086,7 @@
         <v>17</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>19</v>
@@ -4993,7 +5095,7 @@
         <v>20</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>97</v>
@@ -5008,7 +5110,7 @@
         <v>0.095</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,22 +5118,22 @@
         <v>54</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L105" s="4" t="n">
         <v>0.304</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,30 +5141,30 @@
         <v>54</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0.352</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>94</v>
@@ -5074,39 +5176,39 @@
         <v>46</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L107" s="4" t="n">
         <v>0.247</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L108" s="4" t="n">
         <v>0.979</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,7 +5216,7 @@
         <v>17</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>19</v>
@@ -5123,7 +5225,7 @@
         <v>20</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>97</v>
@@ -5138,7 +5240,7 @@
         <v>0.095</v>
       </c>
       <c r="M109" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,19 +5248,19 @@
         <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>46</v>
@@ -5167,7 +5269,7 @@
         <v>3.5</v>
       </c>
       <c r="M110" s="22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,10 +5277,10 @@
         <v>26</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>20</v>
@@ -5190,65 +5292,65 @@
         <v>30</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0.095</v>
       </c>
       <c r="M111" s="22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L112" s="4" t="n">
         <v>0.494</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L113" s="4" t="n">
         <v>0.57</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,7 +5358,7 @@
         <v>26</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>102</v>
@@ -5265,7 +5367,7 @@
         <v>20</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>22</v>
@@ -5277,33 +5379,33 @@
         <v>0.095</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L115" s="4" t="n">
         <v>0.285</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,22 +5413,22 @@
         <v>54</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0.39</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,16 +5436,16 @@
         <v>17</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>97</v>
@@ -5352,65 +5454,65 @@
         <v>23</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0.58</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L118" s="4" t="n">
         <v>0.247</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L119" s="4" t="n">
         <v>0.114</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,7 +5520,7 @@
         <v>33</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>35</v>
@@ -5427,19 +5529,19 @@
         <v>36</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L120" s="4" t="n">
         <v>5</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,28 +5549,28 @@
         <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L121" s="4" t="n">
         <v>1.23</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5578,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>102</v>
@@ -5485,7 +5587,7 @@
         <v>20</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>30</v>
@@ -5497,7 +5599,7 @@
         <v>0.095</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,7 +5607,7 @@
         <v>26</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>28</v>
@@ -5514,19 +5616,19 @@
         <v>20</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L123" s="4" t="n">
         <v>0.219</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5534,7 +5636,7 @@
         <v>26</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>102</v>
@@ -5543,71 +5645,71 @@
         <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L124" s="4" t="n">
         <v>0.152</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L125" s="4" t="n">
         <v>0.257</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L126" s="4" t="n">
         <v>1.07</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5615,16 +5717,16 @@
         <v>17</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>22</v>
@@ -5639,7 +5741,7 @@
         <v>0.095</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,19 +5749,19 @@
         <v>26</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>23</v>
@@ -5668,7 +5770,7 @@
         <v>1.05</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,22 +5778,22 @@
         <v>54</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L129" s="4" t="n">
         <v>0.124</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,19 +5801,19 @@
         <v>26</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>23</v>
@@ -5720,7 +5822,7 @@
         <v>0.095</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,13 +5830,13 @@
         <v>41</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>45</v>
@@ -5743,13 +5845,13 @@
         <v>82</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L131" s="4" t="n">
         <v>5.97</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5757,81 +5859,304 @@
         <v>26</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L132" s="4" t="n">
         <v>0.143</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L133" s="4" t="n">
         <v>0.257</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L134" s="4" t="n">
         <v>0.095</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="L135" s="4" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L136" s="4" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L137" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L138" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L139" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="L140" s="4" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L141" s="4" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L142" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B6:M134"/>
+  <autoFilter ref="B6:M143"/>
   <hyperlinks>
     <hyperlink ref="M7" r:id="rId1" display="https://nl.mouser.com/ProductDetail/Vishay-Dale/CRCW04022K20JNED?qs=hD42E%2F8yzjr994JNQ8Enjw%3D%3D"/>
     <hyperlink ref="M8" r:id="rId2" display="https://nl.mouser.com/ProductDetail/KYOCERA-AVX/04026C104KAT2A?qs=Q0wCMCRSJ1vLqipDGm0h%252BA%3D%3D"/>
@@ -5961,6 +6286,14 @@
     <hyperlink ref="M132" r:id="rId126" display="https://nl.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B475KAHNNNE?qs=349EhDEZ59oSE8dT4yS8Ow%3D%3D"/>
     <hyperlink ref="M133" r:id="rId127" display="https://nl.mouser.com/ProductDetail/Texas-Instruments/LM339LVPWR?qs=QNEnbhJQKvZwu88lvYobUw%3D%3D"/>
     <hyperlink ref="M134" r:id="rId128" display="https://nl.mouser.com/ProductDetail/Texas-Instruments/LM321LVIDCKR?qs=qSfuJ%252Bfl%2Fd6RcyTOjkRx5Q%3D%3D"/>
+    <hyperlink ref="M135" r:id="rId129" display="https://nl.mouser.com/ProductDetail/CK/PTS636-SL50-SMTR-LFS?qs=vLWxofP3U2zRoRV76Po6zQ%3D%3D"/>
+    <hyperlink ref="M136" r:id="rId130" display="https://nl.mouser.com/ProductDetail/Kingbright/WP7113ID?qs=hyavMCx%252BcmDJhCThgY7pfQ%3D%3D"/>
+    <hyperlink ref="M137" r:id="rId131" display="https://nl.mouser.com/ProductDetail/Murata-Electronics/BLM18KG101TN1D?qs=MY6wChARw2zdno9LTSL6Ng%3D%3D"/>
+    <hyperlink ref="M138" r:id="rId132" display="https://nl.mouser.com/ProductDetail/Bourns/CAY16-681J4LF?qs=fd0Ij%252BN8svzpg8SscutFRQ%3D%3D"/>
+    <hyperlink ref="M139" r:id="rId133" display="https://nl.mouser.com/ProductDetail/Nexperia/PESD5Z5.0F?qs=HNBw3F7vE2wb3Eh3cMl6Jg%3D%3D"/>
+    <hyperlink ref="M140" r:id="rId134" display="https://nl.mouser.com/ProductDetail/Kingbright/WP7113ND?qs=CJFmpBjNieP5MCFQ3vDfmg%3D%3D"/>
+    <hyperlink ref="M141" r:id="rId135" display="https://nl.mouser.com/ProductDetail/Kingbright/WP7113GD?qs=pz0eHrWKk7njL1kTYKysuw%3D%3D"/>
+    <hyperlink ref="M142" r:id="rId136" display="https://nl.mouser.com/ProductDetail/Microchip-Technology/ATTINY9-TS8R?qs=%2Fqzd9s%252BcLd6Ex7DNcGSsRA%3D%3D"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5969,6 +6302,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId129"/>
+  <drawing r:id="rId137"/>
 </worksheet>
 </file>
--- a/BOM_Processor/20240322-Electrical component library.xlsx
+++ b/BOM_Processor/20240322-Electrical component library.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Components" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Components!$B$6:$M$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="621">
   <si>
     <t xml:space="preserve">Document:</t>
   </si>
@@ -1676,6 +1676,216 @@
   </si>
   <si>
     <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Microchip-Technology/ATTINY9-TS8R?qs=%2Fqzd9s%252BcLd6Ex7DNcGSsRA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32H533ZET6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQFP-144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/STMicroelectronics/STM32H533ZET6?qs=ZcfC38r4PouZSSZwvN%2F0rg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP2302ARDZ-3.3-R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Analog-Devices/ADP2302ARDZ-3.3-R7?qs=WIvQP4zGaniwiePzHO4kIg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4SMAJ12A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diotec Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Diotec-Semiconductor/P4SMAJ12A?qs=OlC7AqGiEDnaukKU4ZG5Cw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRN8040TA-6R8M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x8x5.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Bourns/SRN8040TA-6R8M?qs=Vt59ZOdFuWZKzofY7uJPVA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67996-100HLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x1-pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Amphenol-FCI/67996-100HLF?qs=Nl1avnnkqqz0q6XiMQ3VCw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TST-110-01-F-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x10-pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Samtec/TST-110-01-F-D?qs=rU5fayqh%252BE0Ee6McwOe2fQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206L075_16WR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Littelfuse/1206L075-16WR?qs=TVaBpCI%2FeOg5hXJBAaxqag%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS20-42-25-WT-160-SMT-TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Same-Sky/TS20-42-25-WT-160-SMT-TR?qs=tlsG%2FOw5FFiXbig16X7ymQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSB43L-E3_5BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Vishay-General-Semiconductor/SSB43L-E3-5BT?qs=x2jpVgRnAtNiPuGHUYcyzg%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESD2USB5UXT-QR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Nexperia/PESD2USB5UXT-QR?qs=3Rah4i%252BhyCET5tUF%2FP4H8w%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS6C6416-55TIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSOP-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Mx16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Alliance-Memory/AS6C6416-55TIN?qs=GmNq1OH0n5SzDB5s%252B7Ym0A%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-160-12-30BQ-ADS-TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x3.2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/ECS/ECS-160-12-30BQ-ADS-TR?qs=wd5RIQLrsJjwIYL6caSorA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150060GS83000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Wurth-Elektronik/150060GS83000?qs=3GbUB62Nf7fgC6%2FTmce6tQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRT-10811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SparkFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/SparkFun/PRT-10811?qs=WyAARYrbSna7U1x2Qa%2FYmw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSD-1-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Same-Sky/MSD-1-A?qs=sGAEpiMZZMvlX3nhDDO4AIrDL%2Fdv%252BVHxfeDZpUs0HoY%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0402C104M9RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/KEMET/C0402C104M9RACTU?qs=JZ1tlzCDhS6kDDvZO7DmSw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0402C160M4HACAUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/KEMET/C0402C160M4HACAUTO?qs=j%252B1pi9TdxUazVHMguOuuEw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL31A226MQHNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31A226MQHNNNE?qs=X6jEic%2FHinBkPmUrpQFjqA%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMK107BJ475MA-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/TAIYO-YUDEN/JMK107BJ475MA-T?qs=I6KAKw0tg2w70pBrhX9IlQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0402-FX-1022GLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/Bourns/CR0402-FX-1022GLF?qs=URDPQ%2Fj0cz0dXXje%252BNROsQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0402FRE0731K6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.mouser.com/ProductDetail/YAGEO/RT0402FRE0731K6L?qs=gY0y7AQI9SOK9v5UlXnp5Q%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +2054,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1935,6 +2145,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2063,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1671120</xdr:colOff>
+      <xdr:colOff>1670760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2079,7 +2293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5455080" y="212040"/>
-          <a:ext cx="1198080" cy="548280"/>
+          <a:ext cx="1197720" cy="547920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2268,15 +2482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M142"/>
+  <dimension ref="B2:M163"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C149" activeCellId="0" sqref="C149"/>
+      <selection pane="bottomLeft" activeCell="D168" activeCellId="0" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2389,7 +2603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2419,7 +2633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2448,7 +2662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2477,7 +2691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2506,7 +2720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2529,7 +2743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2558,7 +2772,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2581,7 +2795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2610,7 +2824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
@@ -2639,7 +2853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -2668,7 +2882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2726,7 +2940,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
@@ -2755,7 +2969,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
@@ -2784,7 +2998,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>112</v>
       </c>
@@ -2807,7 +3021,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>118</v>
       </c>
@@ -2833,7 +3047,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +3070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2879,7 +3093,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2908,7 +3122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2937,7 +3151,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2966,7 +3180,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2995,7 +3209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
@@ -3024,7 +3238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -3373,7 +3587,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
@@ -3402,7 +3616,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3431,7 +3645,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3460,7 +3674,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -3489,7 +3703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
@@ -3518,7 +3732,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
         <v>100</v>
       </c>
@@ -3547,7 +3761,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3634,7 +3848,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
@@ -3657,7 +3871,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>214</v>
       </c>
@@ -3686,7 +3900,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -3747,7 +3961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
@@ -3840,7 +4054,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
@@ -3869,7 +4083,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
         <v>236</v>
       </c>
@@ -3895,7 +4109,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
         <v>242</v>
       </c>
@@ -3921,7 +4135,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3944,7 +4158,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
         <v>252</v>
       </c>
@@ -3967,7 +4181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
@@ -3990,7 +4204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
         <v>261</v>
       </c>
@@ -4019,7 +4233,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
@@ -4042,7 +4256,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
         <v>252</v>
       </c>
@@ -4065,7 +4279,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
         <v>60</v>
       </c>
@@ -4094,7 +4308,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4123,7 +4337,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
         <v>281</v>
       </c>
@@ -4146,7 +4360,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
         <v>242</v>
       </c>
@@ -4236,7 +4450,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
         <v>296</v>
       </c>
@@ -4262,7 +4476,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
         <v>300</v>
       </c>
@@ -4288,7 +4502,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
         <v>118</v>
       </c>
@@ -4314,7 +4528,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
         <v>118</v>
       </c>
@@ -4340,7 +4554,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
@@ -4369,7 +4583,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
         <v>261</v>
       </c>
@@ -4398,7 +4612,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,7 +4641,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
         <v>323</v>
       </c>
@@ -4456,7 +4670,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
         <v>236</v>
       </c>
@@ -4482,7 +4696,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
         <v>54</v>
       </c>
@@ -4505,7 +4719,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
         <v>26</v>
       </c>
@@ -4534,7 +4748,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
         <v>26</v>
       </c>
@@ -4563,7 +4777,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
@@ -4592,7 +4806,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
         <v>79</v>
       </c>
@@ -4621,7 +4835,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
@@ -4644,7 +4858,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
         <v>348</v>
       </c>
@@ -4670,7 +4884,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
         <v>353</v>
       </c>
@@ -4696,7 +4910,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
         <v>54</v>
       </c>
@@ -4719,7 +4933,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4742,7 +4956,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
         <v>362</v>
       </c>
@@ -4800,7 +5014,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
         <v>348</v>
       </c>
@@ -4826,7 +5040,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
         <v>33</v>
       </c>
@@ -4855,7 +5069,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
         <v>214</v>
       </c>
@@ -4884,7 +5098,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
         <v>26</v>
       </c>
@@ -4913,7 +5127,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
         <v>118</v>
       </c>
@@ -4939,7 +5153,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
         <v>26</v>
       </c>
@@ -4968,7 +5182,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
         <v>118</v>
       </c>
@@ -4994,7 +5208,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
         <v>79</v>
       </c>
@@ -5023,7 +5237,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
         <v>26</v>
       </c>
@@ -5052,7 +5266,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
         <v>71</v>
       </c>
@@ -5113,7 +5327,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
         <v>54</v>
       </c>
@@ -5136,7 +5350,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
@@ -5159,7 +5373,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
         <v>236</v>
       </c>
@@ -5185,7 +5399,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5243,7 +5457,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
@@ -5272,7 +5486,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
         <v>26</v>
       </c>
@@ -5301,7 +5515,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
         <v>236</v>
       </c>
@@ -5327,7 +5541,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
         <v>236</v>
       </c>
@@ -5353,7 +5567,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
         <v>26</v>
       </c>
@@ -5382,7 +5596,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
         <v>353</v>
       </c>
@@ -5408,7 +5622,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
         <v>54</v>
       </c>
@@ -5463,7 +5677,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
         <v>353</v>
       </c>
@@ -5489,7 +5703,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
         <v>118</v>
       </c>
@@ -5515,7 +5729,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
         <v>33</v>
       </c>
@@ -5544,7 +5758,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
         <v>79</v>
       </c>
@@ -5573,7 +5787,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
         <v>26</v>
       </c>
@@ -5602,7 +5816,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
         <v>26</v>
       </c>
@@ -5631,7 +5845,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
         <v>26</v>
       </c>
@@ -5660,7 +5874,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
         <v>236</v>
       </c>
@@ -5686,7 +5900,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
         <v>118</v>
       </c>
@@ -5744,7 +5958,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="s">
         <v>26</v>
       </c>
@@ -5773,7 +5987,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
         <v>54</v>
       </c>
@@ -5796,7 +6010,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
         <v>26</v>
       </c>
@@ -5825,7 +6039,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
         <v>41</v>
       </c>
@@ -5854,7 +6068,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1" t="s">
         <v>26</v>
       </c>
@@ -5883,7 +6097,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
         <v>510</v>
       </c>
@@ -5909,7 +6123,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
         <v>112</v>
       </c>
@@ -5932,7 +6146,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="1" t="s">
         <v>518</v>
       </c>
@@ -5955,7 +6169,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="s">
         <v>60</v>
       </c>
@@ -5984,7 +6198,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="1" t="s">
         <v>100</v>
       </c>
@@ -6045,7 +6259,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1" t="s">
         <v>54</v>
       </c>
@@ -6068,7 +6282,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="1" t="s">
         <v>60</v>
       </c>
@@ -6097,7 +6311,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="s">
         <v>60</v>
       </c>
@@ -6126,7 +6340,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
         <v>33</v>
       </c>
@@ -6155,8 +6369,602 @@
         <v>550</v>
       </c>
     </row>
+    <row r="143" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L143" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="M143" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L144" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L145" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="L146" s="4" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L147" s="4" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L148" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L149" s="4" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="L150" s="4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="L151" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L152" s="4" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L153" s="4" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="M153" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="L154" s="4" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L155" s="4" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="M155" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="L156" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L157" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M157" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L158" s="4" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L159" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M159" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L160" s="4" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="M160" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L161" s="4" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="M161" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L162" s="4" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L163" s="4" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="M163" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:M143"/>
+  <autoFilter ref="B6:M162">
+    <filterColumn colId="0" hiddenButton="1">
+      <filters>
+        <filter val="Resistor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="M7" r:id="rId1" display="https://nl.mouser.com/ProductDetail/Vishay-Dale/CRCW04022K20JNED?qs=hD42E%2F8yzjr994JNQ8Enjw%3D%3D"/>
     <hyperlink ref="M8" r:id="rId2" display="https://nl.mouser.com/ProductDetail/KYOCERA-AVX/04026C104KAT2A?qs=Q0wCMCRSJ1vLqipDGm0h%252BA%3D%3D"/>
@@ -6294,6 +7102,27 @@
     <hyperlink ref="M140" r:id="rId134" display="https://nl.mouser.com/ProductDetail/Kingbright/WP7113ND?qs=CJFmpBjNieP5MCFQ3vDfmg%3D%3D"/>
     <hyperlink ref="M141" r:id="rId135" display="https://nl.mouser.com/ProductDetail/Kingbright/WP7113GD?qs=pz0eHrWKk7njL1kTYKysuw%3D%3D"/>
     <hyperlink ref="M142" r:id="rId136" display="https://nl.mouser.com/ProductDetail/Microchip-Technology/ATTINY9-TS8R?qs=%2Fqzd9s%252BcLd6Ex7DNcGSsRA%3D%3D"/>
+    <hyperlink ref="M143" r:id="rId137" display="https://nl.mouser.com/ProductDetail/STMicroelectronics/STM32H533ZET6?qs=ZcfC38r4PouZSSZwvN%2F0rg%3D%"/>
+    <hyperlink ref="M144" r:id="rId138" display="https://nl.mouser.com/ProductDetail/Analog-Devices/ADP2302ARDZ-3.3-R7?qs=WIvQP4zGaniwiePzHO4kIg%3D%3D"/>
+    <hyperlink ref="M145" r:id="rId139" display="https://nl.mouser.com/ProductDetail/Diotec-Semiconductor/P4SMAJ12A?qs=OlC7AqGiEDnaukKU4ZG5Cw%3D%3D"/>
+    <hyperlink ref="M146" r:id="rId140" display="https://nl.mouser.com/ProductDetail/Bourns/SRN8040TA-6R8M?qs=Vt59ZOdFuWZKzofY7uJPVA%3D%3D"/>
+    <hyperlink ref="M147" r:id="rId141" display="https://nl.mouser.com/ProductDetail/Amphenol-FCI/67996-100HLF?qs=Nl1avnnkqqz0q6XiMQ3VCw%3D%3D"/>
+    <hyperlink ref="M148" r:id="rId142" display="https://nl.mouser.com/ProductDetail/Samtec/TST-110-01-F-D?qs=rU5fayqh%252BE0Ee6McwOe2fQ%3D%3D"/>
+    <hyperlink ref="M149" r:id="rId143" display="https://nl.mouser.com/ProductDetail/Littelfuse/1206L075-16WR?qs=TVaBpCI%2FeOg5hXJBAaxqag%3D%3D"/>
+    <hyperlink ref="M150" r:id="rId144" display="https://nl.mouser.com/ProductDetail/Same-Sky/TS20-42-25-WT-160-SMT-TR?qs=tlsG%2FOw5FFiXbig16X7ymQ%3D%3D"/>
+    <hyperlink ref="M151" r:id="rId145" display="https://nl.mouser.com/ProductDetail/Vishay-General-Semiconductor/SSB43L-E3-5BT?qs=x2jpVgRnAtNiPuGHUYcyzg%3D%3D"/>
+    <hyperlink ref="M152" r:id="rId146" display="https://nl.mouser.com/ProductDetail/Nexperia/PESD2USB5UXT-QR?qs=3Rah4i%252BhyCET5tUF%2FP4H8w%3D%3D"/>
+    <hyperlink ref="M153" r:id="rId147" display="https://nl.mouser.com/ProductDetail/Alliance-Memory/AS6C6416-55TIN?qs=GmNq1OH0n5SzDB5s%252B7Ym0A%3D%3D"/>
+    <hyperlink ref="M154" r:id="rId148" display="https://nl.mouser.com/ProductDetail/ECS/ECS-160-12-30BQ-ADS-TR?qs=wd5RIQLrsJjwIYL6caSorA%3D%3D"/>
+    <hyperlink ref="M155" r:id="rId149" display="https://nl.mouser.com/ProductDetail/Wurth-Elektronik/150060GS83000?qs=3GbUB62Nf7fgC6%2FTmce6tQ%3D%3D"/>
+    <hyperlink ref="M156" r:id="rId150" display="https://nl.mouser.com/ProductDetail/SparkFun/PRT-10811?qs=WyAARYrbSna7U1x2Qa%2FYmw%3D%3D"/>
+    <hyperlink ref="M157" r:id="rId151" display="https://nl.mouser.com/ProductDetail/Same-Sky/MSD-1-A?qs=sGAEpiMZZMvlX3nhDDO4AIrDL%2Fdv%252BVHxfeDZpUs0HoY%3D"/>
+    <hyperlink ref="M158" r:id="rId152" display="https://nl.mouser.com/ProductDetail/KEMET/C0402C104M9RACTU?qs=JZ1tlzCDhS6kDDvZO7DmSw%3D%3D"/>
+    <hyperlink ref="M159" r:id="rId153" display="https://nl.mouser.com/ProductDetail/KEMET/C0402C160M4HACAUTO?qs=j%252B1pi9TdxUazVHMguOuuEw%3D%3D"/>
+    <hyperlink ref="M160" r:id="rId154" display="https://nl.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31A226MQHNNNE?qs=X6jEic%2FHinBkPmUrpQFjqA%3D%3D"/>
+    <hyperlink ref="M161" r:id="rId155" display="https://nl.mouser.com/ProductDetail/TAIYO-YUDEN/JMK107BJ475MA-T?qs=I6KAKw0tg2w70pBrhX9IlQ%3D%3D"/>
+    <hyperlink ref="M162" r:id="rId156" display="https://nl.mouser.com/ProductDetail/Bourns/CR0402-FX-1022GLF?qs=URDPQ%2Fj0cz0dXXje%252BNROsQ%3D%3D"/>
+    <hyperlink ref="M163" r:id="rId157" display="https://nl.mouser.com/ProductDetail/YAGEO/RT0402FRE0731K6L?qs=gY0y7AQI9SOK9v5UlXnp5Q%3D%3D"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6302,6 +7131,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId137"/>
+  <drawing r:id="rId158"/>
 </worksheet>
 </file>